--- a/Execution/RunManager.xlsx
+++ b/Execution/RunManager.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14530" windowHeight="2270" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14530" windowHeight="2270" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestExecutor" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>Sno</t>
   </si>
@@ -252,9 +252,6 @@
     <t>loginAPI</t>
   </si>
   <si>
-    <t>src\main\resources\jsonData\LoginTest.txt</t>
-  </si>
-  <si>
     <t>/api/ecom/product/add-product</t>
   </si>
   <si>
@@ -274,6 +271,18 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>/api/ecom/order/create-order</t>
+  </si>
+  <si>
+    <t>Content-Type:application/json;Authorization:</t>
+  </si>
+  <si>
+    <t>src\test\resources\jsonData\LoginTest.json</t>
+  </si>
+  <si>
+    <t>src\test\resources\jsonData\CreateOrder.json</t>
   </si>
 </sst>
 </file>
@@ -535,8 +544,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1189,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
@@ -1200,7 +1209,7 @@
     <col min="3" max="3" width="15.36328125" style="6" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20.81640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14.08984375" style="6" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.453125" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.1796875" style="6" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="37.90625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="26.54296875" style="6" customWidth="1" collapsed="1"/>
@@ -1255,7 +1264,7 @@
         <v>43</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1267,23 +1276,32 @@
         <v>56</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="27.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>56</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -1344,6 +1362,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3:B6" r:id="rId2" display="https://rahulshettyacademy.com"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1353,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -1419,19 +1438,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>65</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13">
@@ -1442,19 +1461,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>67</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">

--- a/Execution/RunManager.xlsx
+++ b/Execution/RunManager.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse workspace\ECommerceAPI\Execution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse workspace\ECommerceAPI1\Execution\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14530" windowHeight="2270" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14530" windowHeight="2270" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestExecutor" sheetId="1" r:id="rId1"/>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
@@ -1372,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
